--- a/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table17.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/fb149/raw/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121978BB-D74F-CD49-B23E-11D30C064F5A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D204909-9554-CF4F-9C80-3F14E3E23AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21960" yWindow="460" windowWidth="21660" windowHeight="25500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,15 +515,14 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="C63" sqref="C63"/>
+      <selection activeCell="A70" sqref="A70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="12.83203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="27" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="9.33203125" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="9.83203125" style="2" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="4" width="9.1640625" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
@@ -1514,10 +1513,10 @@
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>2</v>
+        <v>39</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C72" s="2">
         <v>2451387</v>

--- a/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table17.xlsx
+++ b/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/Table17.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/cfree/Dropbox/Chris/UCSB/projects/wc_cc_synthesis/data/landings/cdfw/public/fish_bulletins/raw/fb149/raw/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D204909-9554-CF4F-9C80-3F14E3E23AEF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51D58DFE-93DB-674D-97F1-FA39EBC7911B}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="21960" yWindow="460" windowWidth="21660" windowHeight="25500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -515,7 +515,7 @@
   <dimension ref="A1:D72"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="A70" sqref="A70"/>
+      <selection activeCell="C62" sqref="C62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1367,7 +1367,7 @@
         <v>35</v>
       </c>
       <c r="C61" s="2">
-        <v>22616</v>
+        <v>22646</v>
       </c>
       <c r="D61" s="2">
         <v>236041</v>
@@ -1421,7 +1421,7 @@
       </c>
       <c r="C65" s="4">
         <f>SUM(C61:C63)-C64</f>
-        <v>-30</v>
+        <v>0</v>
       </c>
       <c r="D65" s="4">
         <f>SUM(D61:D63)-D64</f>
